--- a/daq_system/inputs/CMS_Master_Data_Wiring_Dev6.xlsx
+++ b/daq_system/inputs/CMS_Master_Data_Wiring_Dev6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Desktop\repos\DAQ\instrumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Documents\repos\DAQ\daq_system\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E065695E-2710-4E98-9E15-A21D84978D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF4E03C-25E0-4066-84D8-F8CFF4BBE28A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12720" yWindow="0" windowWidth="12960" windowHeight="15360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67" yWindow="413" windowWidth="12733" windowHeight="15520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Header" sheetId="5" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="47">
   <si>
     <t>Name</t>
   </si>
@@ -146,239 +146,38 @@
     <t>max value</t>
   </si>
   <si>
-    <t>TC-FU-04</t>
-  </si>
-  <si>
-    <t>TC-FU-03</t>
-  </si>
-  <si>
-    <t>TC-OX-02</t>
-  </si>
-  <si>
-    <t>TC-FU-02</t>
-  </si>
-  <si>
-    <t>PT-FU-04</t>
-  </si>
-  <si>
-    <t>PT-FU-03</t>
-  </si>
-  <si>
-    <t>TC-FU-01</t>
-  </si>
-  <si>
-    <t>TC-OX-01</t>
-  </si>
-  <si>
     <t>Differential</t>
   </si>
   <si>
     <t>Constant Value</t>
   </si>
   <si>
-    <t>Dev6/ai16</t>
-  </si>
-  <si>
-    <t>Dev6/ai17</t>
-  </si>
-  <si>
-    <t>Dev6/ai18</t>
-  </si>
-  <si>
-    <t>Dev6/ai19</t>
-  </si>
-  <si>
-    <t>Dev6/ai20</t>
-  </si>
-  <si>
-    <t>Dev6/ai21</t>
-  </si>
-  <si>
-    <t>Dev6/ai22</t>
-  </si>
-  <si>
-    <t>Dev6/ai23</t>
-  </si>
-  <si>
     <t>Dev6/ai0</t>
   </si>
   <si>
-    <t>Dev6/ai1</t>
-  </si>
-  <si>
-    <t>Dev6/ai2</t>
-  </si>
-  <si>
-    <t>Dev6/ai6</t>
-  </si>
-  <si>
-    <t>Dev6/ai7</t>
-  </si>
-  <si>
     <t>Dev6/ai3</t>
   </si>
   <si>
-    <t>Dev6/ai4</t>
-  </si>
-  <si>
-    <t>Dev6/ai5</t>
-  </si>
-  <si>
-    <t>LNG Tank PT</t>
-  </si>
-  <si>
-    <t>AI 17</t>
-  </si>
-  <si>
-    <t>PT-OX-03</t>
-  </si>
-  <si>
-    <t>LOx Tank PT</t>
-  </si>
-  <si>
-    <t>AI 18</t>
-  </si>
-  <si>
-    <t>PT-ENG-01</t>
-  </si>
-  <si>
-    <t>Engine Chamber PT</t>
-  </si>
-  <si>
-    <t>AI 19</t>
-  </si>
-  <si>
-    <t>PT-N2-01</t>
-  </si>
-  <si>
-    <t>Nitrogen Pack PT</t>
-  </si>
-  <si>
-    <t>AI 28</t>
-  </si>
-  <si>
-    <t>PT-OX-04</t>
-  </si>
-  <si>
-    <t>LOx Dewar PT</t>
-  </si>
-  <si>
-    <t>AI 29</t>
-  </si>
-  <si>
-    <t>LNG Dewar PT</t>
-  </si>
-  <si>
-    <t>AI 30</t>
-  </si>
-  <si>
     <t>Wiring AI</t>
   </si>
   <si>
-    <t>TC-OX-03</t>
-  </si>
-  <si>
-    <t>TC-HE-01</t>
-  </si>
-  <si>
-    <t>TC-OX-04</t>
-  </si>
-  <si>
     <t>TC No.</t>
   </si>
   <si>
-    <t>LOx Tank</t>
-  </si>
-  <si>
-    <t>LNG Tank</t>
-  </si>
-  <si>
-    <t>Helium Tank</t>
-  </si>
-  <si>
-    <t>LOx Dewar</t>
-  </si>
-  <si>
-    <t>LNG Dewar</t>
-  </si>
-  <si>
-    <t>LNG Fill Line</t>
-  </si>
-  <si>
-    <t>LNG Vent</t>
-  </si>
-  <si>
-    <t>LOx Fill Line</t>
-  </si>
-  <si>
-    <t>LOx Vent</t>
-  </si>
-  <si>
-    <t>AI 21</t>
-  </si>
-  <si>
-    <t>TC-09</t>
-  </si>
-  <si>
-    <t>AI 22</t>
-  </si>
-  <si>
-    <t>TC-08</t>
-  </si>
-  <si>
-    <t>AI 23</t>
-  </si>
-  <si>
-    <t>TC-07</t>
-  </si>
-  <si>
-    <t>AI 24</t>
-  </si>
-  <si>
-    <t>TC-06</t>
-  </si>
-  <si>
-    <t>AI 25</t>
-  </si>
-  <si>
-    <t>TC-05</t>
-  </si>
-  <si>
-    <t>AI 26</t>
-  </si>
-  <si>
-    <t>TC-04</t>
-  </si>
-  <si>
-    <t>AI 27</t>
-  </si>
-  <si>
-    <t>TC-03</t>
-  </si>
-  <si>
-    <t>AI 31</t>
-  </si>
-  <si>
-    <t>TC-02</t>
-  </si>
-  <si>
-    <t>AI 32</t>
-  </si>
-  <si>
-    <t>TC-01</t>
-  </si>
-  <si>
-    <t>PoundsPerSquareInch</t>
-  </si>
-  <si>
     <t>DegF</t>
+  </si>
+  <si>
+    <t>AI 09</t>
+  </si>
+  <si>
+    <t>TC-IGN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -397,11 +196,6 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -472,7 +266,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -517,12 +311,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -839,35 +627,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
@@ -938,7 +726,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.5">
@@ -946,7 +734,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.5">
@@ -984,11 +772,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A20" sqref="A20"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.29296875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1043,7 +831,7 @@
         <v>11</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="M1" s="15" t="s">
         <v>26</v>
@@ -1053,608 +841,51 @@
       <c r="P1" s="15"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A2" s="13" t="s">
-        <v>43</v>
+      <c r="A2" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F2" s="13">
-        <v>99.9737233508</v>
-      </c>
-      <c r="G2" s="13">
-        <v>-8.0122766099000007</v>
-      </c>
-      <c r="H2" s="13">
-        <v>0</v>
-      </c>
-      <c r="I2" s="13">
+        <v>39.6</v>
+      </c>
+      <c r="G2" s="16">
+        <v>-292</v>
+      </c>
+      <c r="H2" s="16">
+        <v>2</v>
+      </c>
+      <c r="I2" s="16">
         <v>10</v>
       </c>
-      <c r="J2" s="13">
-        <v>14.6</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>64</v>
-      </c>
+      <c r="J2" s="16">
+        <v>52</v>
+      </c>
+      <c r="K2" s="17"/>
       <c r="L2" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A3" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="13">
-        <v>100.06924683290001</v>
-      </c>
-      <c r="G3" s="13">
-        <v>-6.5283587299999999</v>
-      </c>
-      <c r="H3" s="13">
-        <v>0</v>
-      </c>
-      <c r="I3" s="13">
-        <v>10</v>
-      </c>
-      <c r="J3" s="13">
-        <v>14.6</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A4" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="13">
-        <v>100</v>
-      </c>
-      <c r="G4" s="13">
-        <v>-6.6220607021999998</v>
-      </c>
-      <c r="H4" s="13">
-        <v>0</v>
-      </c>
-      <c r="I4" s="13">
-        <v>10</v>
-      </c>
-      <c r="J4" s="13">
-        <v>14.6</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A5" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="13">
-        <v>299.67824018760001</v>
-      </c>
-      <c r="G5" s="13">
-        <v>-9.0021834780999992</v>
-      </c>
-      <c r="H5" s="13">
-        <v>0</v>
-      </c>
-      <c r="I5" s="13">
-        <v>10</v>
-      </c>
-      <c r="J5" s="13">
-        <v>14.6</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A6" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="13">
-        <v>200.03087816710001</v>
-      </c>
-      <c r="G6" s="13">
-        <v>5.4592762398000003</v>
-      </c>
-      <c r="H6" s="13">
-        <v>0</v>
-      </c>
-      <c r="I6" s="13">
-        <v>10</v>
-      </c>
-      <c r="J6" s="13">
-        <v>14.6</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A7" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="13">
-        <v>200.08621243659999</v>
-      </c>
-      <c r="G7" s="13">
-        <v>5.3297765692999999</v>
-      </c>
-      <c r="H7" s="13">
-        <v>0</v>
-      </c>
-      <c r="I7" s="13">
-        <v>10</v>
-      </c>
-      <c r="J7" s="13">
-        <v>14.6</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A8" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="2">
-        <v>39.6</v>
-      </c>
-      <c r="G8" s="16">
-        <v>-292</v>
-      </c>
-      <c r="H8" s="16">
-        <v>2</v>
-      </c>
-      <c r="I8" s="16">
-        <v>10</v>
-      </c>
-      <c r="J8" s="16">
-        <v>84</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="M8" s="13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A9" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="2">
-        <v>39.6</v>
-      </c>
-      <c r="G9" s="16">
-        <v>-292</v>
-      </c>
-      <c r="H9" s="16">
-        <v>2</v>
-      </c>
-      <c r="I9" s="16">
-        <v>10</v>
-      </c>
-      <c r="J9" s="16">
-        <v>84</v>
-      </c>
-      <c r="K9" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="M9" s="13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A10" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="2">
-        <v>39.6</v>
-      </c>
-      <c r="G10" s="16">
-        <v>-292</v>
-      </c>
-      <c r="H10" s="16">
-        <v>2</v>
-      </c>
-      <c r="I10" s="16">
-        <v>10</v>
-      </c>
-      <c r="J10" s="16">
-        <v>84</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="M10" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A11" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="2">
-        <v>39.6</v>
-      </c>
-      <c r="G11" s="16">
-        <v>-292</v>
-      </c>
-      <c r="H11" s="16">
-        <v>2</v>
-      </c>
-      <c r="I11" s="16">
-        <v>10</v>
-      </c>
-      <c r="J11" s="16">
-        <v>84</v>
-      </c>
-      <c r="K11" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="M11" s="13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A12" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="2">
-        <v>39.6</v>
-      </c>
-      <c r="G12" s="16">
-        <v>-292</v>
-      </c>
-      <c r="H12" s="16">
-        <v>2</v>
-      </c>
-      <c r="I12" s="16">
-        <v>10</v>
-      </c>
-      <c r="J12" s="16">
-        <v>84</v>
-      </c>
-      <c r="K12" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="L12" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="M12" s="13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A13" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="2">
-        <v>39.6</v>
-      </c>
-      <c r="G13" s="16">
-        <v>-292</v>
-      </c>
-      <c r="H13" s="16">
-        <v>2</v>
-      </c>
-      <c r="I13" s="16">
-        <v>10</v>
-      </c>
-      <c r="J13" s="16">
-        <v>84</v>
-      </c>
-      <c r="K13" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="M13" s="13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A14" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="2">
-        <v>39.6</v>
-      </c>
-      <c r="G14" s="16">
-        <v>-292</v>
-      </c>
-      <c r="H14" s="16">
-        <v>2</v>
-      </c>
-      <c r="I14" s="16">
-        <v>10</v>
-      </c>
-      <c r="J14" s="16">
-        <v>84</v>
-      </c>
-      <c r="K14" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="M14" s="13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A15" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="2">
-        <v>39.6</v>
-      </c>
-      <c r="G15" s="16">
-        <v>-292</v>
-      </c>
-      <c r="H15" s="16">
-        <v>2</v>
-      </c>
-      <c r="I15" s="16">
-        <v>10</v>
-      </c>
-      <c r="J15" s="16">
-        <v>84</v>
-      </c>
-      <c r="K15" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A16" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="2">
-        <v>39.6</v>
-      </c>
-      <c r="G16" s="16">
-        <v>-292</v>
-      </c>
-      <c r="H16" s="16">
-        <v>2</v>
-      </c>
-      <c r="I16" s="16">
-        <v>10</v>
-      </c>
-      <c r="J16" s="16">
-        <v>84</v>
-      </c>
-      <c r="K16" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="M16" s="13" t="s">
-        <v>111</v>
-      </c>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E289" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E275" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"default,RSE,NRSE,Differential,Pseudodifferential"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C289" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C275" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"no,yes"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1703,10 +934,10 @@
         <v>11</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>26</v>
@@ -1903,28 +1134,28 @@
       <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A2" s="1"/>
@@ -2391,28 +1622,28 @@
       <c r="J1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A18" s="1"/>
@@ -2476,25 +1707,25 @@
       <c r="D1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.5">
       <c r="C2" s="1"/>

--- a/daq_system/inputs/CMS_Master_Data_Wiring_Dev6.xlsx
+++ b/daq_system/inputs/CMS_Master_Data_Wiring_Dev6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Documents\repos\DAQ\daq_system\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nmaso\Documents\DAQ\PSPL_DAQ\daq_system\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF4E03C-25E0-4066-84D8-F8CFF4BBE28A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F0300B-1D71-410B-84AF-8303E25E3035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67" yWindow="413" windowWidth="12733" windowHeight="15520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Header" sheetId="5" r:id="rId1"/>
@@ -170,7 +170,7 @@
     <t>AI 09</t>
   </si>
   <si>
-    <t>TC-IGN</t>
+    <t>TC-IGN-2</t>
   </si>
 </sst>
 </file>
@@ -618,15 +618,15 @@
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.29296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1171875" style="5"/>
-    <col min="4" max="16384" width="9.1171875" style="1"/>
+    <col min="1" max="1" width="26.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.73046875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1328125" style="5"/>
+    <col min="4" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:25" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="18" t="s">
         <v>27</v>
       </c>
@@ -657,7 +657,7 @@
       <c r="X1" s="20"/>
       <c r="Y1" s="20"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -665,7 +665,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -673,7 +673,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -681,7 +681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -689,7 +689,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -697,7 +697,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -705,7 +705,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -713,7 +713,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -721,7 +721,7 @@
         <v>10.24</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -729,7 +729,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -737,7 +737,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -745,7 +745,7 @@
         <v>-196</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -776,27 +776,27 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C11" sqref="C11"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.29296875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="21.265625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.41015625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="4.52734375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.05859375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.73046875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.3984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="4.53125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.06640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="23" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.41015625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.1171875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.87890625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.87890625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="15.29296875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="24.1171875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.29296875" style="4"/>
-    <col min="13" max="16384" width="21.29296875" style="2"/>
+    <col min="6" max="6" width="7.3984375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.1328125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.86328125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.86328125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15.265625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="24.1328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.265625" style="4"/>
+    <col min="13" max="16384" width="21.265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -840,7 +840,7 @@
       <c r="O1" s="15"/>
       <c r="P1" s="15"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
         <v>46</v>
       </c>
@@ -903,18 +903,18 @@
       <selection pane="bottomLeft" activeCell="H2" sqref="H2:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.87890625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.41015625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5859375" customWidth="1"/>
-    <col min="4" max="4" width="19.41015625" customWidth="1"/>
-    <col min="5" max="5" width="7.87890625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.87890625" customWidth="1"/>
-    <col min="7" max="7" width="9.1171875" style="7"/>
+    <col min="1" max="1" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.59765625" customWidth="1"/>
+    <col min="4" max="4" width="19.3984375" customWidth="1"/>
+    <col min="5" max="5" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.86328125" customWidth="1"/>
+    <col min="7" max="7" width="9.1328125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -960,7 +960,7 @@
       <c r="Y1" s="15"/>
       <c r="Z1" s="15"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -971,7 +971,7 @@
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -982,7 +982,7 @@
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -993,7 +993,7 @@
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -1004,7 +1004,7 @@
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -1015,7 +1015,7 @@
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -1026,7 +1026,7 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -1037,7 +1037,7 @@
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -1048,7 +1048,7 @@
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -1059,7 +1059,7 @@
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -1084,20 +1084,20 @@
       <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.1171875" customWidth="1"/>
-    <col min="2" max="2" width="18.41015625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5859375" customWidth="1"/>
-    <col min="4" max="4" width="19.41015625" customWidth="1"/>
-    <col min="5" max="7" width="14.703125" customWidth="1"/>
-    <col min="8" max="8" width="19.87890625" customWidth="1"/>
+    <col min="1" max="1" width="8.1328125" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.59765625" customWidth="1"/>
+    <col min="4" max="4" width="19.3984375" customWidth="1"/>
+    <col min="5" max="7" width="14.73046875" customWidth="1"/>
+    <col min="8" max="8" width="19.86328125" customWidth="1"/>
     <col min="9" max="11" width="12" style="2" customWidth="1"/>
-    <col min="12" max="12" width="31.5859375" customWidth="1"/>
-    <col min="13" max="13" width="9.1171875" style="7"/>
+    <col min="12" max="12" width="31.59765625" customWidth="1"/>
+    <col min="13" max="13" width="9.1328125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:32" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1157,7 +1157,7 @@
       <c r="AE1" s="22"/>
       <c r="AF1" s="22"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1171,7 +1171,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1184,7 +1184,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1198,7 +1198,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1211,7 +1211,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1225,7 +1225,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1238,7 +1238,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1252,7 +1252,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1265,7 +1265,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1279,7 +1279,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1292,7 +1292,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1306,7 +1306,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1319,7 +1319,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1333,7 +1333,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1346,7 +1346,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1360,7 +1360,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1373,7 +1373,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1387,7 +1387,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1400,7 +1400,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1414,7 +1414,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1427,119 +1427,119 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="5:8" x14ac:dyDescent="0.5">
+    <row r="33" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="5:8" x14ac:dyDescent="0.5">
+    <row r="34" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="5:8" x14ac:dyDescent="0.5">
+    <row r="35" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="5:8" x14ac:dyDescent="0.5">
+    <row r="36" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="5:8" x14ac:dyDescent="0.5">
+    <row r="37" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="5:8" x14ac:dyDescent="0.5">
+    <row r="38" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="5:8" x14ac:dyDescent="0.5">
+    <row r="39" spans="5:8" x14ac:dyDescent="0.45">
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="5:8" x14ac:dyDescent="0.5">
+    <row r="40" spans="5:8" x14ac:dyDescent="0.45">
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="5:8" x14ac:dyDescent="0.5">
+    <row r="41" spans="5:8" x14ac:dyDescent="0.45">
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -1577,21 +1577,21 @@
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="9.87890625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.86328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.87890625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.87890625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.1171875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.1171875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.41015625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.1328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.73046875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1171875" style="7"/>
+    <col min="11" max="11" width="9.1328125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:30" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1645,7 +1645,7 @@
       <c r="AC1" s="22"/>
       <c r="AD1" s="22"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1685,16 +1685,16 @@
       <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.87890625" customWidth="1"/>
-    <col min="2" max="2" width="25.87890625" customWidth="1"/>
-    <col min="3" max="3" width="7.41015625" customWidth="1"/>
-    <col min="4" max="4" width="39.29296875" customWidth="1"/>
-    <col min="5" max="5" width="9.1171875" style="7"/>
+    <col min="1" max="1" width="20.86328125" customWidth="1"/>
+    <col min="2" max="2" width="25.86328125" customWidth="1"/>
+    <col min="3" max="3" width="7.3984375" customWidth="1"/>
+    <col min="4" max="4" width="39.265625" customWidth="1"/>
+    <col min="5" max="5" width="9.1328125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1727,7 +1727,7 @@
       <c r="T1" s="22"/>
       <c r="U1" s="22"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
       <c r="C2" s="1"/>
     </row>
   </sheetData>

--- a/daq_system/inputs/CMS_Master_Data_Wiring_Dev6.xlsx
+++ b/daq_system/inputs/CMS_Master_Data_Wiring_Dev6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nmaso\Documents\DAQ\PSPL_DAQ\daq_system\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F0300B-1D71-410B-84AF-8303E25E3035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1928B16-CBB7-406A-9253-4DC9779E68C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,17 +20,28 @@
     <sheet name="AI_TC_Advanced" sheetId="7" r:id="rId5"/>
     <sheet name="DI" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="55">
   <si>
     <t>Name</t>
   </si>
@@ -167,17 +178,41 @@
     <t>DegF</t>
   </si>
   <si>
-    <t>AI 09</t>
-  </si>
-  <si>
-    <t>TC-IGN-2</t>
+    <t>Dev6/ai1</t>
+  </si>
+  <si>
+    <t>TC-OX-202</t>
+  </si>
+  <si>
+    <t>TC-FU-202</t>
+  </si>
+  <si>
+    <t>TC-FU-BOTTOM</t>
+  </si>
+  <si>
+    <t>Dev6/ai16</t>
+  </si>
+  <si>
+    <t>TC-FU-UPPER</t>
+  </si>
+  <si>
+    <t>Dev6/ai17</t>
+  </si>
+  <si>
+    <t>Dev6/ai2</t>
+  </si>
+  <si>
+    <t>PT-CHAMBER</t>
+  </si>
+  <si>
+    <t>PoundsPerSquareInch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +233,18 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -266,7 +313,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -314,6 +361,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -627,35 +683,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -772,11 +828,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.265625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -842,45 +898,203 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="13">
-        <v>39.6</v>
-      </c>
-      <c r="G2" s="16">
-        <v>-292</v>
-      </c>
-      <c r="H2" s="16">
+      <c r="F2" s="19">
+        <v>22</v>
+      </c>
+      <c r="G2" s="20">
+        <v>93.15</v>
+      </c>
+      <c r="H2" s="20">
         <v>2</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="20">
         <v>10</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="20">
         <v>52</v>
       </c>
       <c r="K2" s="17"/>
-      <c r="L2" s="14" t="s">
-        <v>45</v>
-      </c>
+      <c r="L2" s="14"/>
       <c r="M2" s="13"/>
       <c r="N2" s="13"/>
       <c r="O2" s="13"/>
       <c r="P2" s="13"/>
     </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A3" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="19">
+        <v>22</v>
+      </c>
+      <c r="G3" s="20">
+        <v>93.15</v>
+      </c>
+      <c r="H3" s="20">
+        <v>2</v>
+      </c>
+      <c r="I3" s="20">
+        <v>10</v>
+      </c>
+      <c r="J3" s="20">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A4" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="19">
+        <v>22</v>
+      </c>
+      <c r="G4" s="20">
+        <v>93.15</v>
+      </c>
+      <c r="H4" s="20">
+        <v>2</v>
+      </c>
+      <c r="I4" s="20">
+        <v>10</v>
+      </c>
+      <c r="J4" s="20">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A5" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="19">
+        <v>22</v>
+      </c>
+      <c r="G5" s="20">
+        <v>93.15</v>
+      </c>
+      <c r="H5" s="20">
+        <v>2</v>
+      </c>
+      <c r="I5" s="20">
+        <v>10</v>
+      </c>
+      <c r="J5" s="20">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A6" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="19">
+        <v>50.110999999999997</v>
+      </c>
+      <c r="G6" s="19">
+        <v>-4.5568999999999997</v>
+      </c>
+      <c r="H6" s="20">
+        <v>0</v>
+      </c>
+      <c r="I6" s="20">
+        <v>10</v>
+      </c>
+      <c r="J6" s="19">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A7" s="16"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A8" s="16"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E275" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"default,RSE,NRSE,Differential,Pseudodifferential"</formula1>
@@ -1134,28 +1348,28 @@
       <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
@@ -1622,28 +1836,28 @@
       <c r="J1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
@@ -1707,25 +1921,25 @@
       <c r="D1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.45">
       <c r="C2" s="1"/>

--- a/daq_system/inputs/CMS_Master_Data_Wiring_Dev6.xlsx
+++ b/daq_system/inputs/CMS_Master_Data_Wiring_Dev6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nmaso\Documents\DAQ\PSPL_DAQ\daq_system\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1928B16-CBB7-406A-9253-4DC9779E68C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59446F0-AB61-4DED-8ADB-46E4489D9CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -187,15 +187,9 @@
     <t>TC-FU-202</t>
   </si>
   <si>
-    <t>TC-FU-BOTTOM</t>
-  </si>
-  <si>
     <t>Dev6/ai16</t>
   </si>
   <si>
-    <t>TC-FU-UPPER</t>
-  </si>
-  <si>
     <t>Dev6/ai17</t>
   </si>
   <si>
@@ -206,6 +200,12 @@
   </si>
   <si>
     <t>PoundsPerSquareInch</t>
+  </si>
+  <si>
+    <t>TC-FU-VENT</t>
+  </si>
+  <si>
+    <t>TC-BATTERY</t>
   </si>
 </sst>
 </file>
@@ -832,7 +832,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G7" sqref="G7"/>
+      <selection pane="topRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.265625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -898,7 +898,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>40</v>
@@ -971,7 +971,7 @@
         <v>47</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>17</v>
@@ -1000,10 +1000,10 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" s="16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>17</v>
@@ -1032,16 +1032,16 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>38</v>

--- a/daq_system/inputs/CMS_Master_Data_Wiring_Dev6.xlsx
+++ b/daq_system/inputs/CMS_Master_Data_Wiring_Dev6.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nmaso\Documents\DAQ\PSPL_DAQ\daq_system\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59446F0-AB61-4DED-8ADB-46E4489D9CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BD5E8B-99C9-4E0F-A62F-7C9F57FB6A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="57">
   <si>
     <t>Name</t>
   </si>
@@ -206,6 +206,12 @@
   </si>
   <si>
     <t>TC-BATTERY</t>
+  </si>
+  <si>
+    <t>Dev6/ai18</t>
+  </si>
+  <si>
+    <t>PT-FU-6</t>
   </si>
 </sst>
 </file>
@@ -832,7 +838,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E10" sqref="E10"/>
+      <selection pane="topRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.265625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1063,16 +1069,36 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A7" s="16"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
+      <c r="A7" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="19">
+        <v>100</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0</v>
+      </c>
+      <c r="H7" s="20">
+        <v>0</v>
+      </c>
+      <c r="I7" s="20">
+        <v>10</v>
+      </c>
+      <c r="J7" s="19">
+        <v>14.9</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" s="16"/>

--- a/daq_system/inputs/CMS_Master_Data_Wiring_Dev6.xlsx
+++ b/daq_system/inputs/CMS_Master_Data_Wiring_Dev6.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nmaso\Documents\DAQ\PSPL_DAQ\daq_system\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bill\Documents\GitHub\PSPL_DAQ\daq_system\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BD5E8B-99C9-4E0F-A62F-7C9F57FB6A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Header" sheetId="5" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <sheet name="AI_TC_Advanced" sheetId="7" r:id="rId5"/>
     <sheet name="DI" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -211,13 +210,13 @@
     <t>Dev6/ai18</t>
   </si>
   <si>
-    <t>PT-FU-6</t>
+    <t>PT-FU-06</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -672,7 +671,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -821,10 +820,10 @@
     <mergeCell ref="C1:Y1"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B6 B8" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B6 B8">
       <formula1>"no,yes"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
       <formula1>"Built-In,Constant Value,Channel"</formula1>
     </dataValidation>
   </dataValidations>
@@ -833,12 +832,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F8" sqref="F8"/>
+      <selection pane="topRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.265625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1122,10 +1121,10 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E275" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E275">
       <formula1>"default,RSE,NRSE,Differential,Pseudodifferential"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C275" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C275">
       <formula1>"no,yes"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1135,7 +1134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1316,7 +1315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1789,19 +1788,19 @@
     <mergeCell ref="M1:AF1"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D21" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D21">
       <formula1>"C,F,R,K"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C21" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C21">
       <formula1>"no,yes"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E38" xr:uid="{00000000-0002-0000-0300-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E38">
       <formula1>"Pt3750,Pt3851,Pt3911,Pt3916,Pt3920,Pt3928"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F41" xr:uid="{00000000-0002-0000-0300-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F41">
       <formula1>"2-Wire,3-Wire,4-Wire"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G41" xr:uid="{00000000-0002-0000-0300-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G41">
       <formula1>"External,Internal,None"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1810,7 +1809,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1899,16 +1898,16 @@
     <mergeCell ref="K1:AD1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G7 G10:G14 G18:G90" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G7 G10:G14 G18:G90">
       <formula1>"default,RSE,NRSE,Differential,Pseudodifferential"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C7 C10:C14 C18" xr:uid="{00000000-0002-0000-0400-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C7 C10:C14 C18">
       <formula1>"no,yes"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E7 E10:E14 E18" xr:uid="{00000000-0002-0000-0400-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E7 E10:E14 E18">
       <formula1>"J,K,N,R,S,T,B,E"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D7 D10:D14 D18" xr:uid="{00000000-0002-0000-0400-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D7 D10:D14 D18">
       <formula1>"C,F,R,K"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1917,7 +1916,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1975,7 +1974,7 @@
     <mergeCell ref="E1:U1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
       <formula1>"no,yes"</formula1>
     </dataValidation>
   </dataValidations>

--- a/daq_system/inputs/CMS_Master_Data_Wiring_Dev6.xlsx
+++ b/daq_system/inputs/CMS_Master_Data_Wiring_Dev6.xlsx
@@ -210,7 +210,7 @@
     <t>Dev6/ai18</t>
   </si>
   <si>
-    <t>PT-FU-06</t>
+    <t>PT-FU-6</t>
   </si>
 </sst>
 </file>

--- a/daq_system/inputs/CMS_Master_Data_Wiring_Dev6.xlsx
+++ b/daq_system/inputs/CMS_Master_Data_Wiring_Dev6.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bill\Documents\GitHub\PSPL_DAQ\daq_system\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nmaso\Documents\DAQ\PSPL_DAQ\daq_system\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD3986F-D321-4DB0-96B9-FAAD89F537ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Header" sheetId="5" r:id="rId1"/>
@@ -24,23 +25,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="58">
   <si>
     <t>Name</t>
   </si>
@@ -180,12 +170,6 @@
     <t>Dev6/ai1</t>
   </si>
   <si>
-    <t>TC-OX-202</t>
-  </si>
-  <si>
-    <t>TC-FU-202</t>
-  </si>
-  <si>
     <t>Dev6/ai16</t>
   </si>
   <si>
@@ -195,28 +179,37 @@
     <t>Dev6/ai2</t>
   </si>
   <si>
-    <t>PT-CHAMBER</t>
-  </si>
-  <si>
     <t>PoundsPerSquareInch</t>
   </si>
   <si>
-    <t>TC-FU-VENT</t>
-  </si>
-  <si>
-    <t>TC-BATTERY</t>
-  </si>
-  <si>
     <t>Dev6/ai18</t>
   </si>
   <si>
-    <t>PT-FU-6</t>
+    <t>TC_OX_202</t>
+  </si>
+  <si>
+    <t>TC_FU_202</t>
+  </si>
+  <si>
+    <t>TC_FU_VENT</t>
+  </si>
+  <si>
+    <t>PT_CHAMBER</t>
+  </si>
+  <si>
+    <t>_4.5569</t>
+  </si>
+  <si>
+    <t>PT_FU_06</t>
+  </si>
+  <si>
+    <t>TC_FMS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -671,7 +664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -820,10 +813,10 @@
     <mergeCell ref="C1:Y1"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B6 B8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B6 B8" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"no,yes"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Built-In,Constant Value,Channel"</formula1>
     </dataValidation>
   </dataValidations>
@@ -832,12 +825,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A8" sqref="A8"/>
+      <selection pane="topRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.265625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -903,7 +896,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>40</v>
@@ -941,7 +934,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="16" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>45</v>
@@ -973,10 +966,10 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" s="16" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>17</v>
@@ -1008,7 +1001,7 @@
         <v>53</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>17</v>
@@ -1037,16 +1030,16 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" s="16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>38</v>
@@ -1054,8 +1047,8 @@
       <c r="F6" s="19">
         <v>50.110999999999997</v>
       </c>
-      <c r="G6" s="19">
-        <v>-4.5568999999999997</v>
+      <c r="G6" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="H6" s="20">
         <v>0</v>
@@ -1072,13 +1065,13 @@
         <v>56</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>38</v>
@@ -1121,10 +1114,10 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E275">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E275" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"default,RSE,NRSE,Differential,Pseudodifferential"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C275">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C275" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"no,yes"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1134,7 +1127,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1315,7 +1308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AF41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1788,19 +1781,19 @@
     <mergeCell ref="M1:AF1"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D21" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"C,F,R,K"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C21" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"no,yes"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E38" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>"Pt3750,Pt3851,Pt3911,Pt3916,Pt3920,Pt3928"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F41" xr:uid="{00000000-0002-0000-0300-000003000000}">
       <formula1>"2-Wire,3-Wire,4-Wire"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G41" xr:uid="{00000000-0002-0000-0300-000004000000}">
       <formula1>"External,Internal,None"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1809,7 +1802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AD18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1898,16 +1891,16 @@
     <mergeCell ref="K1:AD1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G7 G10:G14 G18:G90">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G7 G10:G14 G18:G90" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"default,RSE,NRSE,Differential,Pseudodifferential"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C7 C10:C14 C18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C7 C10:C14 C18" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>"no,yes"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E7 E10:E14 E18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E7 E10:E14 E18" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>"J,K,N,R,S,T,B,E"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D7 D10:D14 D18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D7 D10:D14 D18" xr:uid="{00000000-0002-0000-0400-000003000000}">
       <formula1>"C,F,R,K"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1916,12 +1909,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1974,7 +1967,7 @@
     <mergeCell ref="E1:U1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"no,yes"</formula1>
     </dataValidation>
   </dataValidations>

--- a/daq_system/inputs/CMS_Master_Data_Wiring_Dev6.xlsx
+++ b/daq_system/inputs/CMS_Master_Data_Wiring_Dev6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nmaso\Documents\DAQ\PSPL_DAQ\daq_system\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD3986F-D321-4DB0-96B9-FAAD89F537ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98ADC29B-8AF7-4137-AF8F-55F0E8FF6CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Header" sheetId="5" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="57">
   <si>
     <t>Name</t>
   </si>
@@ -195,9 +195,6 @@
   </si>
   <si>
     <t>PT_CHAMBER</t>
-  </si>
-  <si>
-    <t>_4.5569</t>
   </si>
   <si>
     <t>PT_FU_06</t>
@@ -828,9 +825,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B9" sqref="B9"/>
+      <selection pane="topRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.265625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -896,7 +893,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>40</v>
@@ -1047,8 +1044,8 @@
       <c r="F6" s="19">
         <v>50.110999999999997</v>
       </c>
-      <c r="G6" s="19" t="s">
-        <v>55</v>
+      <c r="G6" s="19">
+        <v>-4.5568999999999997</v>
       </c>
       <c r="H6" s="20">
         <v>0</v>
@@ -1062,7 +1059,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>50</v>
@@ -1912,9 +1909,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/daq_system/inputs/CMS_Master_Data_Wiring_Dev6.xlsx
+++ b/daq_system/inputs/CMS_Master_Data_Wiring_Dev6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nmaso\Documents\DAQ\PSPL_DAQ\daq_system\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337BB65B-B1C9-4056-B0E6-DAC7D7C08D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5036F5-469E-442E-B1A8-44FE8B6C15BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -152,9 +152,6 @@
     <t>Constant Value</t>
   </si>
   <si>
-    <t>Dev6/ai0</t>
-  </si>
-  <si>
     <t>Dev6/ai3</t>
   </si>
   <si>
@@ -164,43 +161,13 @@
     <t>TC No.</t>
   </si>
   <si>
-    <t>DegF</t>
-  </si>
-  <si>
-    <t>Dev6/ai1</t>
-  </si>
-  <si>
-    <t>Dev6/ai16</t>
-  </si>
-  <si>
-    <t>Dev6/ai17</t>
-  </si>
-  <si>
-    <t>Dev6/ai2</t>
-  </si>
-  <si>
     <t>PoundsPerSquareInch</t>
   </si>
   <si>
     <t>Dev6/ai18</t>
   </si>
   <si>
-    <t>TC_OX_202</t>
-  </si>
-  <si>
-    <t>TC_FU_202</t>
-  </si>
-  <si>
-    <t>TC_FU_VENT</t>
-  </si>
-  <si>
     <t>PT_FU_06</t>
-  </si>
-  <si>
-    <t>TC_FMS</t>
-  </si>
-  <si>
-    <t>POT</t>
   </si>
 </sst>
 </file>
@@ -785,7 +752,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.45">
@@ -827,7 +794,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A7" sqref="A7"/>
+      <selection pane="topRight" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.265625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -882,7 +849,7 @@
         <v>11</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M1" s="15" t="s">
         <v>26</v>
@@ -893,34 +860,34 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>38</v>
       </c>
       <c r="F2" s="19">
-        <v>22</v>
-      </c>
-      <c r="G2" s="20">
-        <v>93.15</v>
+        <v>100</v>
+      </c>
+      <c r="G2" s="19">
+        <v>0</v>
       </c>
       <c r="H2" s="20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" s="20">
         <v>10</v>
       </c>
-      <c r="J2" s="20">
-        <v>52</v>
+      <c r="J2" s="19">
+        <v>14.9</v>
       </c>
       <c r="K2" s="17"/>
       <c r="L2" s="14"/>
@@ -930,164 +897,64 @@
       <c r="P2" s="13"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A3" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="19">
-        <v>22</v>
-      </c>
-      <c r="G3" s="20">
-        <v>93.15</v>
-      </c>
-      <c r="H3" s="20">
-        <v>2</v>
-      </c>
-      <c r="I3" s="20">
-        <v>10</v>
-      </c>
-      <c r="J3" s="20">
-        <v>52</v>
-      </c>
+      <c r="A3" s="16"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A4" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="19">
-        <v>22</v>
-      </c>
-      <c r="G4" s="20">
-        <v>93.15</v>
-      </c>
-      <c r="H4" s="20">
-        <v>2</v>
-      </c>
-      <c r="I4" s="20">
-        <v>10</v>
-      </c>
-      <c r="J4" s="20">
-        <v>52</v>
-      </c>
+      <c r="A4" s="16"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A5" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="19">
-        <v>22</v>
-      </c>
-      <c r="G5" s="20">
-        <v>93.15</v>
-      </c>
-      <c r="H5" s="20">
-        <v>2</v>
-      </c>
-      <c r="I5" s="20">
-        <v>10</v>
-      </c>
-      <c r="J5" s="20">
-        <v>52</v>
-      </c>
+      <c r="A5" s="16"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A6" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="19">
-        <v>50.110999999999997</v>
-      </c>
-      <c r="G6" s="19">
-        <v>-4.5568999999999997</v>
-      </c>
-      <c r="H6" s="20">
-        <v>0</v>
-      </c>
-      <c r="I6" s="20">
-        <v>10</v>
-      </c>
-      <c r="J6" s="19">
-        <v>14.9</v>
-      </c>
+      <c r="A6" s="16"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A7" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="19">
-        <v>100</v>
-      </c>
-      <c r="G7" s="19">
-        <v>0</v>
-      </c>
-      <c r="H7" s="20">
-        <v>0</v>
-      </c>
-      <c r="I7" s="20">
-        <v>10</v>
-      </c>
-      <c r="J7" s="19">
-        <v>14.9</v>
-      </c>
+      <c r="A7" s="16"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="19"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" s="16"/>
@@ -1163,10 +1030,10 @@
         <v>11</v>
       </c>
       <c r="G1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>42</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>43</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>26</v>

--- a/daq_system/inputs/CMS_Master_Data_Wiring_Dev6.xlsx
+++ b/daq_system/inputs/CMS_Master_Data_Wiring_Dev6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nmaso\Documents\DAQ\PSPL_DAQ\daq_system\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5036F5-469E-442E-B1A8-44FE8B6C15BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D95A2A-62D6-4C45-A992-2B523A9DA742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
   <si>
     <t>Name</t>
   </si>
@@ -146,9 +146,6 @@
     <t>max value</t>
   </si>
   <si>
-    <t>Differential</t>
-  </si>
-  <si>
     <t>Constant Value</t>
   </si>
   <si>
@@ -159,15 +156,6 @@
   </si>
   <si>
     <t>TC No.</t>
-  </si>
-  <si>
-    <t>PoundsPerSquareInch</t>
-  </si>
-  <si>
-    <t>Dev6/ai18</t>
-  </si>
-  <si>
-    <t>PT_FU_06</t>
   </si>
 </sst>
 </file>
@@ -744,7 +732,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.45">
@@ -752,7 +740,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.45">
@@ -794,7 +782,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J11" sqref="J11"/>
+      <selection pane="topRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.265625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -849,7 +837,7 @@
         <v>11</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M1" s="15" t="s">
         <v>26</v>
@@ -859,36 +847,16 @@
       <c r="P1" s="15"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A2" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="19">
-        <v>100</v>
-      </c>
-      <c r="G2" s="19">
-        <v>0</v>
-      </c>
-      <c r="H2" s="20">
-        <v>0</v>
-      </c>
-      <c r="I2" s="20">
-        <v>10</v>
-      </c>
-      <c r="J2" s="19">
-        <v>14.9</v>
-      </c>
+      <c r="A2" s="16"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="19"/>
       <c r="K2" s="17"/>
       <c r="L2" s="14"/>
       <c r="M2" s="13"/>
@@ -1030,10 +998,10 @@
         <v>11</v>
       </c>
       <c r="G1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>41</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>42</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>26</v>
